--- a/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_11_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.29880688857942</v>
+        <v>90.08942398385052</v>
       </c>
       <c r="D2" t="n">
-        <v>4.2959478879374</v>
+        <v>4.232174843418892</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.33914531473027</v>
+        <v>89.26535150021463</v>
       </c>
       <c r="D3" t="n">
-        <v>4.37802198489782</v>
+        <v>4.424253768150127</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.60621180024528</v>
+        <v>88.55052197369406</v>
       </c>
       <c r="D4" t="n">
-        <v>4.413599816231604</v>
+        <v>4.178536701765208</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.85408774803064</v>
+        <v>87.21337873572772</v>
       </c>
       <c r="D5" t="n">
-        <v>4.511986068945202</v>
+        <v>4.421609842737615</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.6740649590328</v>
+        <v>86.12687145532423</v>
       </c>
       <c r="D6" t="n">
-        <v>4.353080472820149</v>
+        <v>3.640087459648667</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.25904638670784</v>
+        <v>84.66837077496172</v>
       </c>
       <c r="D7" t="n">
-        <v>4.638544651466921</v>
+        <v>3.884844999103714</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.71511535700198</v>
+        <v>83.38152447019787</v>
       </c>
       <c r="D8" t="n">
-        <v>3.744054163715455</v>
+        <v>4.405602652837112</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.73912894845736</v>
+        <v>83.0007651124083</v>
       </c>
       <c r="D9" t="n">
-        <v>4.387409383486705</v>
+        <v>4.216373754417902</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79529533825469</v>
+        <v>82.49180114954703</v>
       </c>
       <c r="D10" t="n">
-        <v>4.176627619305495</v>
+        <v>4.4664585103243</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9018217005451</v>
+        <v>80.81506171766961</v>
       </c>
       <c r="D11" t="n">
-        <v>4.109191790071027</v>
+        <v>4.038951870715199</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.93336272622068</v>
+        <v>80.21783226241014</v>
       </c>
       <c r="D12" t="n">
-        <v>4.136657069308636</v>
+        <v>4.202842083543207</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.12516476970724</v>
+        <v>79.78111331697289</v>
       </c>
       <c r="D13" t="n">
-        <v>3.930713394213325</v>
+        <v>4.570232067200457</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.55143807489499</v>
+        <v>77.94549414190713</v>
       </c>
       <c r="D14" t="n">
-        <v>3.92684691429114</v>
+        <v>4.528126934191766</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.32340671119562</v>
+        <v>77.29231266962627</v>
       </c>
       <c r="D15" t="n">
-        <v>4.664955140981887</v>
+        <v>4.156787891575338</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.10612570489941</v>
+        <v>76.21847311861444</v>
       </c>
       <c r="D16" t="n">
-        <v>4.561924873982025</v>
+        <v>4.856239545070745</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.56588824354343</v>
+        <v>74.87050393229929</v>
       </c>
       <c r="D17" t="n">
-        <v>4.027433762951533</v>
+        <v>4.900071429724825</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.52034543592153</v>
+        <v>74.1102319772077</v>
       </c>
       <c r="D18" t="n">
-        <v>4.204200019309028</v>
+        <v>4.755130489820474</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.0134438770653</v>
+        <v>73.53910342391333</v>
       </c>
       <c r="D19" t="n">
-        <v>4.570739934056624</v>
+        <v>4.938988723087153</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.16318565289315</v>
+        <v>72.03000681518596</v>
       </c>
       <c r="D20" t="n">
-        <v>4.521815119491232</v>
+        <v>4.166070395565263</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.06864056558018</v>
+        <v>71.39223086321698</v>
       </c>
       <c r="D21" t="n">
-        <v>4.067027935237603</v>
+        <v>4.616093643499206</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.77193266716111</v>
+        <v>69.72100949445006</v>
       </c>
       <c r="D22" t="n">
-        <v>4.502219044398146</v>
+        <v>4.028868163426747</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.36980188198791</v>
+        <v>69.50509924379105</v>
       </c>
       <c r="D23" t="n">
-        <v>4.440652008539418</v>
+        <v>4.231909416966874</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97297817967629</v>
+        <v>67.96936269542577</v>
       </c>
       <c r="D24" t="n">
-        <v>4.809320134305845</v>
+        <v>4.252031279550313</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.90208141901354</v>
+        <v>66.83214980178028</v>
       </c>
       <c r="D25" t="n">
-        <v>4.740112112110386</v>
+        <v>4.491513239134702</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.71727330013115</v>
+        <v>65.90073843185677</v>
       </c>
       <c r="D26" t="n">
-        <v>4.449101731939151</v>
+        <v>4.297663364564523</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.47032175283931</v>
+        <v>64.61219171542676</v>
       </c>
       <c r="D27" t="n">
-        <v>4.49457182405235</v>
+        <v>4.513924709169683</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.12442278766459</v>
+        <v>64.13213394258774</v>
       </c>
       <c r="D28" t="n">
-        <v>4.435798861372804</v>
+        <v>4.842334729982712</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.1610028480136</v>
+        <v>62.74371432094764</v>
       </c>
       <c r="D29" t="n">
-        <v>4.685550547992979</v>
+        <v>4.37153775733896</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.40393713329405</v>
+        <v>61.88437324143443</v>
       </c>
       <c r="D30" t="n">
-        <v>4.71503496314127</v>
+        <v>4.383106720248941</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.01737823285194</v>
+        <v>60.64505161829677</v>
       </c>
       <c r="D31" t="n">
-        <v>4.499735494228956</v>
+        <v>3.950643895762096</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.41259979783304</v>
+        <v>60.02383663684502</v>
       </c>
       <c r="D32" t="n">
-        <v>4.105285324004941</v>
+        <v>4.173942286742292</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.37262924502389</v>
+        <v>59.2163145432575</v>
       </c>
       <c r="D33" t="n">
-        <v>4.286961044628875</v>
+        <v>4.54886395146952</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.67346867154814</v>
+        <v>58.39235010362255</v>
       </c>
       <c r="D34" t="n">
-        <v>4.430908028002462</v>
+        <v>4.989230341117682</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.62238684032435</v>
+        <v>57.06383360636325</v>
       </c>
       <c r="D35" t="n">
-        <v>4.199651690497705</v>
+        <v>4.606872627257089</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.63727968608841</v>
+        <v>56.39605567705071</v>
       </c>
       <c r="D36" t="n">
-        <v>4.606017414690703</v>
+        <v>5.079256870247362</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.00035208683678</v>
+        <v>54.98736917415376</v>
       </c>
       <c r="D37" t="n">
-        <v>4.618475181874681</v>
+        <v>4.9350821658108</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.44240856171151</v>
+        <v>54.07850621176719</v>
       </c>
       <c r="D38" t="n">
-        <v>3.685553394724159</v>
+        <v>4.882661677272951</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.84659964755202</v>
+        <v>53.66589545042697</v>
       </c>
       <c r="D39" t="n">
-        <v>4.458732342379253</v>
+        <v>4.22330045776112</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.47626733413455</v>
+        <v>52.31741965765523</v>
       </c>
       <c r="D40" t="n">
-        <v>4.296054618787132</v>
+        <v>4.980818224052707</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.15833132666687</v>
+        <v>51.19579609225642</v>
       </c>
       <c r="D41" t="n">
-        <v>4.208095806735068</v>
+        <v>4.870146583900197</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.13840856833076</v>
+        <v>50.1129383005493</v>
       </c>
       <c r="D42" t="n">
-        <v>4.83171598307382</v>
+        <v>4.638167310165684</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.5835697253798</v>
+        <v>49.06460954625349</v>
       </c>
       <c r="D43" t="n">
-        <v>4.786643148024889</v>
+        <v>4.539265818280412</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.8021935716777</v>
+        <v>47.64229622669855</v>
       </c>
       <c r="D44" t="n">
-        <v>5.298462498443365</v>
+        <v>4.571046630449414</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.66268706754963</v>
+        <v>46.74454299882593</v>
       </c>
       <c r="D45" t="n">
-        <v>5.173420399616825</v>
+        <v>4.645993511152337</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.96289239569855</v>
+        <v>46.96073919761002</v>
       </c>
       <c r="D46" t="n">
-        <v>4.607340383203168</v>
+        <v>5.383410698773704</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.40685089011198</v>
+        <v>44.44743794257419</v>
       </c>
       <c r="D47" t="n">
-        <v>4.856747385404856</v>
+        <v>5.109970136609443</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.36361554202868</v>
+        <v>43.80988644114076</v>
       </c>
       <c r="D48" t="n">
-        <v>4.822902240153173</v>
+        <v>4.868077989182234</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.91456709456056</v>
+        <v>41.98466294075494</v>
       </c>
       <c r="D49" t="n">
-        <v>4.190331023123921</v>
+        <v>4.692493217811844</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.58283102932922</v>
+        <v>41.98230884525345</v>
       </c>
       <c r="D50" t="n">
-        <v>4.914922543145487</v>
+        <v>5.323724581432185</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.06746241433976</v>
+        <v>41.14036286092013</v>
       </c>
       <c r="D51" t="n">
-        <v>4.915012210994917</v>
+        <v>4.952408957085932</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98533098849913</v>
+        <v>40.9740681906168</v>
       </c>
       <c r="D52" t="n">
-        <v>4.372304301281951</v>
+        <v>4.845469604503797</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.61131846626219</v>
+        <v>38.05445405435749</v>
       </c>
       <c r="D53" t="n">
-        <v>5.207644345790369</v>
+        <v>4.810797386916816</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.90258928958628</v>
+        <v>38.68229602826848</v>
       </c>
       <c r="D54" t="n">
-        <v>5.111218203084965</v>
+        <v>4.498510727670049</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.83295855155393</v>
+        <v>36.24130968523963</v>
       </c>
       <c r="D55" t="n">
-        <v>4.749848036411027</v>
+        <v>5.447521387424131</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.55405034777595</v>
+        <v>36.18929535362937</v>
       </c>
       <c r="D56" t="n">
-        <v>4.207891705907357</v>
+        <v>4.967852994876681</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.18561646211955</v>
+        <v>34.19084729206973</v>
       </c>
       <c r="D57" t="n">
-        <v>4.836179138210447</v>
+        <v>4.672297917210305</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.25314687704468</v>
+        <v>35.70402134139083</v>
       </c>
       <c r="D58" t="n">
-        <v>5.085069662236216</v>
+        <v>5.108715342507687</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.99298400482503</v>
+        <v>32.92226307070553</v>
       </c>
       <c r="D59" t="n">
-        <v>4.956077504082398</v>
+        <v>5.004162775309686</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.35806475107661</v>
+        <v>31.92017104370807</v>
       </c>
       <c r="D60" t="n">
-        <v>5.319552978490766</v>
+        <v>4.271516724895067</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.69560132831044</v>
+        <v>30.47779487915143</v>
       </c>
       <c r="D61" t="n">
-        <v>4.843037383665496</v>
+        <v>4.905871007854111</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.03593847000508</v>
+        <v>29.03401350594919</v>
       </c>
       <c r="D62" t="n">
-        <v>5.206831656913278</v>
+        <v>5.307025230627842</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.86719997127282</v>
+        <v>28.7208875556635</v>
       </c>
       <c r="D63" t="n">
-        <v>4.962918155254529</v>
+        <v>4.334607741408115</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.73241810545674</v>
+        <v>28.53218075262972</v>
       </c>
       <c r="D64" t="n">
-        <v>4.514271145865163</v>
+        <v>4.922930852698059</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.03051443661849</v>
+        <v>26.87635681036377</v>
       </c>
       <c r="D65" t="n">
-        <v>4.506765424230477</v>
+        <v>4.67132202378387</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.52792881120305</v>
+        <v>25.7520507216551</v>
       </c>
       <c r="D66" t="n">
-        <v>5.348521300279742</v>
+        <v>5.275949219558313</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.33591609472928</v>
+        <v>24.74401041129229</v>
       </c>
       <c r="D67" t="n">
-        <v>5.435242286112516</v>
+        <v>4.807312142920407</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.17291713574555</v>
+        <v>25.28762015932566</v>
       </c>
       <c r="D68" t="n">
-        <v>5.705303940133443</v>
+        <v>4.961435113325248</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.22443352704261</v>
+        <v>22.38475640281771</v>
       </c>
       <c r="D69" t="n">
-        <v>4.785273363570946</v>
+        <v>4.845868882024345</v>
       </c>
     </row>
   </sheetData>
